--- a/Field_Elevate_Sector_Monthly_Returns.xlsx
+++ b/Field_Elevate_Sector_Monthly_Returns.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,6 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>9.140000000000001</v>
       </c>
@@ -557,6 +556,57 @@
       </c>
       <c r="O2" t="n">
         <v>3.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Tech &amp; Innovation</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Health &amp; Biotech</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/Field_Elevate_Sector_Monthly_Returns.xlsx
+++ b/Field_Elevate_Sector_Monthly_Returns.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monthly" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,6 @@
           <t>2016-01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>-5.65</v>
       </c>
@@ -593,7 +592,6 @@
           <t>2017-08</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>2.91</v>
       </c>
@@ -644,7 +642,6 @@
           <t>2017-09</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>3</v>
       </c>
@@ -695,7 +692,6 @@
           <t>2017-10</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>7.72</v>
       </c>
@@ -746,7 +742,6 @@
           <t>2017-11</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.66</v>
       </c>
@@ -797,7 +792,6 @@
           <t>2017-12</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>-0.43</v>
       </c>
@@ -848,7 +842,6 @@
           <t>2018-01</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>7.83</v>
       </c>
@@ -899,7 +892,6 @@
           <t>2018-02</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>-0.09</v>
       </c>
@@ -950,7 +942,6 @@
           <t>2018-03</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>-3.08</v>
       </c>
@@ -1001,7 +992,6 @@
           <t>2018-04</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>-3.12</v>
       </c>
@@ -1052,7 +1042,6 @@
           <t>2018-05</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>8.94</v>
       </c>
@@ -1103,7 +1092,6 @@
           <t>2018-06</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>-2.42</v>
       </c>
@@ -1154,7 +1142,6 @@
           <t>2018-07</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>3.08</v>
       </c>
@@ -1205,7 +1192,6 @@
           <t>2018-08</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>4.6</v>
       </c>
@@ -1256,7 +1242,6 @@
           <t>2018-09</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>-1.18</v>
       </c>
@@ -1307,7 +1292,6 @@
           <t>2018-10</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>-9.970000000000001</v>
       </c>
@@ -1358,7 +1342,6 @@
           <t>2018-11</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>0.64</v>
       </c>
@@ -1409,7 +1392,6 @@
           <t>2018-12</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>-7.46</v>
       </c>
@@ -1460,7 +1442,6 @@
           <t>2019-01</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>8.5</v>
       </c>
@@ -1511,7 +1492,6 @@
           <t>2019-02</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>6.65</v>
       </c>
@@ -1562,7 +1542,6 @@
           <t>2019-03</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>4.1</v>
       </c>
@@ -1613,7 +1592,6 @@
           <t>2019-04</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>8.99</v>
       </c>
@@ -1664,7 +1642,6 @@
           <t>2019-05</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>-12.61</v>
       </c>
@@ -1715,7 +1692,6 @@
           <t>2019-06</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
         <v>10.9</v>
       </c>
@@ -1766,7 +1742,6 @@
           <t>2019-07</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
         <v>4.56</v>
       </c>
@@ -1817,7 +1792,6 @@
           <t>2019-08</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>-1.92</v>
       </c>
@@ -1868,7 +1842,6 @@
           <t>2019-09</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>2.65</v>
       </c>
@@ -1919,7 +1892,6 @@
           <t>2019-10</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
         <v>5.01</v>
       </c>
@@ -1970,7 +1942,6 @@
           <t>2019-11</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>4.72</v>
       </c>
@@ -2021,7 +1992,6 @@
           <t>2019-12</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>6.13</v>
       </c>
@@ -2072,7 +2042,6 @@
           <t>2020-01</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>0.4</v>
       </c>
@@ -2123,7 +2092,6 @@
           <t>2020-02</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>-5.97</v>
       </c>
@@ -2174,7 +2142,6 @@
           <t>2020-03</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>-9.869999999999999</v>
       </c>
@@ -2225,7 +2192,6 @@
           <t>2020-04</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>14.14</v>
       </c>
@@ -2276,7 +2242,6 @@
           <t>2020-05</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>7.17</v>
       </c>
@@ -2327,7 +2292,6 @@
           <t>2020-06</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>7.37</v>
       </c>
@@ -2378,7 +2342,6 @@
           <t>2020-07</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
         <v>6.45</v>
       </c>
@@ -2429,7 +2392,6 @@
           <t>2020-08</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>8.84</v>
       </c>
@@ -2480,7 +2442,6 @@
           <t>2020-09</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>-2.91</v>
       </c>
@@ -2531,7 +2492,6 @@
           <t>2020-10</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>-2.36</v>
       </c>
@@ -2582,7 +2542,6 @@
           <t>2020-11</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>14.91</v>
       </c>
@@ -2633,7 +2592,6 @@
           <t>2020-12</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
         <v>5.28</v>
       </c>
@@ -2684,7 +2642,6 @@
           <t>2021-01</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>1.19</v>
       </c>
@@ -2735,7 +2692,6 @@
           <t>2021-02</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>3.94</v>
       </c>
@@ -2786,7 +2742,6 @@
           <t>2021-03</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>1.86</v>
       </c>
@@ -2837,7 +2792,6 @@
           <t>2021-04</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>2.36</v>
       </c>
@@ -2888,7 +2842,6 @@
           <t>2021-05</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
         <v>0.8</v>
       </c>
@@ -2939,7 +2892,6 @@
           <t>2021-06</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>6</v>
       </c>
@@ -2990,7 +2942,6 @@
           <t>2021-07</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
         <v>2.24</v>
       </c>
@@ -3041,7 +2992,6 @@
           <t>2021-08</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
         <v>3.01</v>
       </c>
@@ -3092,7 +3042,6 @@
           <t>2021-09</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
         <v>-5.19</v>
       </c>
@@ -3143,7 +3092,6 @@
           <t>2021-10</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
         <v>7.31</v>
       </c>
@@ -3194,7 +3142,6 @@
           <t>2021-11</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
         <v>7.98</v>
       </c>
@@ -3245,7 +3192,6 @@
           <t>2021-12</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
         <v>2.96</v>
       </c>
@@ -3296,7 +3242,6 @@
           <t>2022-01</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
         <v>-9.220000000000001</v>
       </c>
@@ -3347,7 +3292,6 @@
           <t>2022-02</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
         <v>-2.99</v>
       </c>
@@ -3398,7 +3342,6 @@
           <t>2022-03</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
         <v>1.67</v>
       </c>
@@ -3449,7 +3392,6 @@
           <t>2022-04</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
         <v>-13.17</v>
       </c>
@@ -3500,7 +3442,6 @@
           <t>2022-05</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
         <v>2.82</v>
       </c>
@@ -3551,7 +3492,6 @@
           <t>2022-06</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
         <v>-13.55</v>
       </c>
@@ -3602,7 +3542,6 @@
           <t>2022-07</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
         <v>14.98</v>
       </c>
@@ -3653,7 +3592,6 @@
           <t>2022-08</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
         <v>-7.73</v>
       </c>
@@ -3704,7 +3642,6 @@
           <t>2022-09</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
         <v>-12.64</v>
       </c>
@@ -3755,7 +3692,6 @@
           <t>2022-10</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
         <v>5.04</v>
       </c>
@@ -3806,7 +3742,6 @@
           <t>2022-11</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
         <v>12.59</v>
       </c>
@@ -3857,7 +3792,6 @@
           <t>2022-12</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
         <v>-9.140000000000001</v>
       </c>
@@ -3908,7 +3842,6 @@
           <t>2023-01</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>12.63</v>
       </c>
@@ -3959,7 +3892,6 @@
           <t>2023-02</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0.97</v>
       </c>
@@ -4010,7 +3942,6 @@
           <t>2023-03</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
         <v>9.82</v>
       </c>
@@ -4061,7 +3992,6 @@
           <t>2023-04</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
         <v>-3.72</v>
       </c>
@@ -4112,7 +4042,6 @@
           <t>2023-05</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
         <v>12.29</v>
       </c>
@@ -4163,7 +4092,6 @@
           <t>2023-06</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>6.3</v>
       </c>
@@ -4214,7 +4142,6 @@
           <t>2023-07</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
         <v>4.06</v>
       </c>
@@ -4265,7 +4192,6 @@
           <t>2023-08</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
         <v>-3.05</v>
       </c>
@@ -4316,7 +4242,6 @@
           <t>2023-09</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>-6.7</v>
       </c>
@@ -4367,7 +4292,6 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>-3.28</v>
       </c>
@@ -4418,7 +4342,6 @@
           <t>2023-11</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
         <v>14.5</v>
       </c>
@@ -4469,7 +4392,6 @@
           <t>2023-12</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>8.279999999999999</v>
       </c>
@@ -4520,7 +4442,6 @@
           <t>2024-01</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
         <v>2.21</v>
       </c>
@@ -4571,7 +4492,6 @@
           <t>2024-02</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
         <v>7.99</v>
       </c>
@@ -4622,7 +4542,6 @@
           <t>2024-03</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>2.42</v>
       </c>
@@ -4673,7 +4592,6 @@
           <t>2024-04</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
         <v>-5.52</v>
       </c>
@@ -4724,7 +4642,6 @@
           <t>2024-05</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
         <v>8.220000000000001</v>
       </c>
@@ -4775,7 +4692,6 @@
           <t>2024-06</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>6.68</v>
       </c>
@@ -4826,7 +4742,6 @@
           <t>2024-07</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>-3.92</v>
       </c>
@@ -4877,7 +4792,6 @@
           <t>2024-08</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
         <v>-0.55</v>
       </c>
@@ -4928,7 +4842,6 @@
           <t>2024-09</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
         <v>1.33</v>
       </c>
@@ -4979,7 +4892,6 @@
           <t>2024-10</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>-3.45</v>
       </c>
@@ -5030,7 +4942,6 @@
           <t>2024-11</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
         <v>1.93</v>
       </c>
@@ -5081,7 +4992,6 @@
           <t>2024-12</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
         <v>-0.08</v>
       </c>
@@ -5132,7 +5042,6 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
         <v>0.24</v>
       </c>
@@ -5183,7 +5092,6 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
         <v>-3.35</v>
       </c>
@@ -5234,7 +5142,6 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
         <v>-8.960000000000001</v>
       </c>
@@ -5285,7 +5192,6 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
         <v>-0.31</v>
       </c>
@@ -5336,7 +5242,6 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
         <v>10.73</v>
       </c>
@@ -5387,7 +5292,6 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>13.29</v>
       </c>
@@ -5438,7 +5342,6 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
         <v>2.16</v>
       </c>
@@ -5489,7 +5392,6 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
         <v>1.05</v>
       </c>
@@ -5540,7 +5442,6 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>9.140000000000001</v>
       </c>
@@ -5591,7 +5492,6 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>9.869999999999999</v>
       </c>
@@ -5642,49 +5542,48 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>-10.36</v>
+        <v>-4</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.13</v>
+        <v>1.58</v>
       </c>
       <c r="E102" t="n">
-        <v>1.39</v>
+        <v>9.42</v>
       </c>
       <c r="F102" t="n">
-        <v>-23.64</v>
+        <v>-19.38</v>
       </c>
       <c r="G102" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Health &amp; Biotech</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
         <v>0.1</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-1.63</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Health &amp; Biotech</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Precious Metals</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
-        <v>-3.95</v>
       </c>
     </row>
   </sheetData>

--- a/Field_Elevate_Sector_Monthly_Returns.xlsx
+++ b/Field_Elevate_Sector_Monthly_Returns.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5586,6 +5586,57 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Energy &amp; Materials</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Field_Elevate_Sector_Monthly_Returns.xlsx
+++ b/Field_Elevate_Sector_Monthly_Returns.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5592,7 +5592,6 @@
           <t>2025-12</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>1.19</v>
       </c>
@@ -5635,6 +5634,57 @@
       </c>
       <c r="O103" t="n">
         <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D104" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-13.13</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Energy &amp; Materials</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>2.78</v>
       </c>
     </row>
   </sheetData>
